--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
   <si>
     <t>Property</t>
   </si>
@@ -246,13 +246,10 @@
     <t>*</t>
   </si>
   <si>
-    <t>Set of values bounded by low and high</t>
-  </si>
-  <si>
-    <t>A set of ordered Quantities defined by a low and high limit.</t>
-  </si>
-  <si>
-    <t>The stated low and high value are assumed to have arbitrarily high precision when it comes to determining which values are in the range. I.e. 1.99 is not in the range 2 -&gt; 3.</t>
+    <t>薬剤の単位指定された上限下限量</t>
+  </si>
+  <si>
+    <t>薬剤の上限量、下限量の範囲を持っている。単位指定された数量を割り当てている。</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -335,10 +332,10 @@
 </t>
   </si>
   <si>
-    <t>薬剤に関する数量と単位を定めたデータイプ</t>
-  </si>
-  <si>
-    <t>薬剤に関する数量と単位を定めている。【JP Core仕様】単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
+    <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
+  </si>
+  <si>
+    <t>薬剤に関する簡易的な数量と単位を定めている。ValueおよびCodeを必須とし、comparatorは記述不可。単位についてはMERIT9医薬品単位略号の利用を推進している。(**SHOULD**)</t>
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
@@ -850,10 +847,10 @@
         <v>77</v>
       </c>
       <c r="L2" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="M2" t="s" s="2">
         <v>78</v>
-      </c>
-      <c r="M2" t="s" s="2">
-        <v>79</v>
       </c>
       <c r="N2" s="2"/>
       <c r="O2" t="s" s="2">
@@ -912,21 +909,21 @@
         <v>76</v>
       </c>
       <c r="AH2" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI2" t="s" s="2">
         <v>80</v>
       </c>
-      <c r="AI2" t="s" s="2">
+      <c r="AJ2" t="s" s="2">
         <v>81</v>
       </c>
-      <c r="AJ2" t="s" s="2">
+      <c r="AK2" t="s" s="2">
         <v>82</v>
-      </c>
-      <c r="AK2" t="s" s="2">
-        <v>83</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
@@ -937,25 +934,25 @@
         <v>75</v>
       </c>
       <c r="F3" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>85</v>
       </c>
-      <c r="G3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s" s="2">
+      <c r="K3" t="s" s="2">
         <v>86</v>
       </c>
-      <c r="K3" t="s" s="2">
+      <c r="L3" t="s" s="2">
         <v>87</v>
-      </c>
-      <c r="L3" t="s" s="2">
-        <v>88</v>
       </c>
       <c r="M3" s="2"/>
       <c r="N3" s="2"/>
@@ -1006,13 +1003,13 @@
         <v>74</v>
       </c>
       <c r="AE3" t="s" s="2">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AF3" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG3" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH3" t="s" s="2">
         <v>74</v>
@@ -1024,16 +1021,16 @@
         <v>74</v>
       </c>
       <c r="AK3" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" t="s" s="2">
@@ -1052,16 +1049,16 @@
         <v>74</v>
       </c>
       <c r="J4" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="K4" t="s" s="2">
+      <c r="L4" t="s" s="2">
         <v>94</v>
       </c>
-      <c r="L4" t="s" s="2">
+      <c r="M4" t="s" s="2">
         <v>95</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" t="s" s="2">
@@ -1099,19 +1096,19 @@
         <v>74</v>
       </c>
       <c r="AA4" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="AB4" t="s" s="2">
         <v>97</v>
       </c>
-      <c r="AB4" t="s" s="2">
+      <c r="AC4" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD4" t="s" s="2">
         <v>98</v>
       </c>
-      <c r="AC4" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD4" t="s" s="2">
+      <c r="AE4" t="s" s="2">
         <v>99</v>
-      </c>
-      <c r="AE4" t="s" s="2">
-        <v>100</v>
       </c>
       <c r="AF4" t="s" s="2">
         <v>75</v>
@@ -1123,18 +1120,18 @@
         <v>74</v>
       </c>
       <c r="AI4" t="s" s="2">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="AJ4" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AK4" t="s" s="2">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
@@ -1145,7 +1142,7 @@
         <v>75</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s" s="2">
         <v>74</v>
@@ -1157,16 +1154,16 @@
         <v>74</v>
       </c>
       <c r="J5" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K5" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K5" t="s" s="2">
+      <c r="L5" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L5" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
@@ -1216,30 +1213,30 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ5" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AJ5" t="s" s="2">
+      <c r="AK5" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AK5" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1250,7 +1247,7 @@
         <v>75</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="G6" t="s" s="2">
         <v>74</v>
@@ -1262,16 +1259,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
+        <v>102</v>
+      </c>
+      <c r="K6" t="s" s="2">
         <v>103</v>
       </c>
-      <c r="K6" t="s" s="2">
+      <c r="L6" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="M6" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L6" t="s" s="2">
-        <v>104</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1321,25 +1318,25 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG6" t="s" s="2">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="AJ6" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AJ6" t="s" s="2">
+      <c r="AK6" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="AK6" t="s" s="2">
-        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
   <si>
     <t>Property</t>
   </si>
@@ -325,11 +325,27 @@
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
   </si>
   <si>
+    <t>strengthType</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
+</t>
+  </si>
+  <si>
+    <t>力価区分</t>
+  </si>
+  <si>
+    <t>投与量が製剤単位か成分単位かを格納する</t>
+  </si>
+  <si>
     <t>Range.low</t>
   </si>
   <si>
     <t xml:space="preserve">Quantity {http://jpfhir.jp/fhir/core/StructureDefinition/JP_MedicationSimpleQuantity}
 </t>
+  </si>
+  <si>
+    <t>薬剤の上限量</t>
   </si>
   <si>
     <t>薬剤に関する数量と単位を定めた簡易データイプ</t>
@@ -655,7 +671,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK6"/>
+  <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -665,7 +681,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="13.3046875" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1131,9 +1147,11 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
+        <v>90</v>
+      </c>
+      <c r="B5" t="s" s="2">
         <v>101</v>
       </c>
-      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
@@ -1160,11 +1178,9 @@
         <v>103</v>
       </c>
       <c r="L5" t="s" s="2">
-        <v>103</v>
-      </c>
-      <c r="M5" t="s" s="2">
         <v>104</v>
       </c>
+      <c r="M5" s="2"/>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>74</v>
@@ -1213,30 +1229,30 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>106</v>
+        <v>74</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>107</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1259,16 +1275,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1318,7 +1334,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1330,13 +1346,118 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="AJ6" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK6" t="s" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="D7" s="2"/>
+      <c r="E7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="H7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="I7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="J7" t="s" s="2">
         <v>106</v>
       </c>
-      <c r="AK6" t="s" s="2">
-        <v>107</v>
+      <c r="K7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="M7" t="s" s="2">
+        <v>109</v>
+      </c>
+      <c r="N7" s="2"/>
+      <c r="O7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="P7" s="2"/>
+      <c r="Q7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="R7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="S7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="T7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="U7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="V7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="W7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="X7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Y7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="Z7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AA7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD7" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE7" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="AF7" t="s" s="2">
+        <v>75</v>
+      </c>
+      <c r="AG7" t="s" s="2">
+        <v>84</v>
+      </c>
+      <c r="AH7" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="AI7" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="AJ7" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="AK7" t="s" s="2">
+        <v>112</v>
       </c>
     </row>
   </sheetData>

--- a/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange.xlsx
+++ b/jpcore-r4/feature/swg5-medication_refactoring/StructureDefinition-jp-medicationrange.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239" uniqueCount="110">
   <si>
     <t>Property</t>
   </si>
@@ -323,19 +323,6 @@
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>strengthType</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension {http://jpfhir.jp/fhir/core/Extension/StructureDefinition/JP_Medication_IngredientStrength_StrengthType}
-</t>
-  </si>
-  <si>
-    <t>力価区分</t>
-  </si>
-  <si>
-    <t>投与量が製剤単位か成分単位かを格納する</t>
   </si>
   <si>
     <t>Range.low</t>
@@ -671,7 +658,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK7"/>
+  <dimension ref="A1:AK6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -681,7 +668,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="16.44921875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="13.3046875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="12.66015625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="12.64453125" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1147,11 +1134,9 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>90</v>
-      </c>
-      <c r="B5" t="s" s="2">
         <v>101</v>
       </c>
+      <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
         <v>74</v>
       </c>
@@ -1180,7 +1165,9 @@
       <c r="L5" t="s" s="2">
         <v>104</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" t="s" s="2">
+        <v>105</v>
+      </c>
       <c r="N5" s="2"/>
       <c r="O5" t="s" s="2">
         <v>74</v>
@@ -1229,30 +1216,30 @@
         <v>74</v>
       </c>
       <c r="AE5" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="AF5" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AG5" t="s" s="2">
-        <v>76</v>
+        <v>84</v>
       </c>
       <c r="AH5" t="s" s="2">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="AI5" t="s" s="2">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>74</v>
+        <v>107</v>
       </c>
       <c r="AK5" t="s" s="2">
-        <v>74</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
@@ -1275,16 +1262,16 @@
         <v>74</v>
       </c>
       <c r="J6" t="s" s="2">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="K6" t="s" s="2">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="L6" t="s" s="2">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="M6" t="s" s="2">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="N6" s="2"/>
       <c r="O6" t="s" s="2">
@@ -1334,7 +1321,7 @@
         <v>74</v>
       </c>
       <c r="AE6" t="s" s="2">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="AF6" t="s" s="2">
         <v>75</v>
@@ -1346,118 +1333,13 @@
         <v>79</v>
       </c>
       <c r="AI6" t="s" s="2">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="AK6" t="s" s="2">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D7" s="2"/>
-      <c r="E7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="F7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="G7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="J7" t="s" s="2">
-        <v>106</v>
-      </c>
-      <c r="K7" t="s" s="2">
         <v>108</v>
-      </c>
-      <c r="L7" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>109</v>
-      </c>
-      <c r="N7" s="2"/>
-      <c r="O7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P7" s="2"/>
-      <c r="Q7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD7" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE7" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="AF7" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AG7" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="AH7" t="s" s="2">
-        <v>79</v>
-      </c>
-      <c r="AI7" t="s" s="2">
-        <v>110</v>
-      </c>
-      <c r="AJ7" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AK7" t="s" s="2">
-        <v>112</v>
       </c>
     </row>
   </sheetData>
